--- a/results/test_excel/CONSTANTS_excel.xlsx
+++ b/results/test_excel/CONSTANTS_excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\CryoGrid_v01\results\test_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitin\Dropbox\CRYOGRID-all\CryoGrid-development_modular_170619_SebonGIt\CryoGrid-development\results\test_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5472" windowHeight="2088"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>CONST</t>
   </si>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>Tmfw</t>
+  </si>
+  <si>
+    <t>c_a</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>von KÃ¡rmÃ¡n constant [-]</t>
+  </si>
+  <si>
+    <t>p_0</t>
+  </si>
+  <si>
+    <t>T_f</t>
+  </si>
+  <si>
+    <t>L_lg</t>
+  </si>
+  <si>
+    <t>L_sg</t>
+  </si>
+  <si>
+    <t>L_sl</t>
   </si>
 </sst>
 </file>
@@ -514,34 +538,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -556,7 +580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -571,7 +595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -585,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -599,7 +623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -613,7 +637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -624,7 +648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -638,7 +662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -652,7 +676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -666,7 +690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -680,166 +704,241 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1">
+        <f>0.00125*10^6</f>
+        <v>1250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.56999999999999995</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>2.2000000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
-        <v>0.25</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
       </c>
       <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>5.6699999999999998E-8</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>8.3144589999999994</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>273.14999999999998</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>9.81</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>989.63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>39</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>1.5</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>0.4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5.6704000000000003E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>273.14999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1">
+        <v>334000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2501000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1">
+        <f>B37+B38</f>
+        <v>2835000</v>
       </c>
     </row>
   </sheetData>

--- a/results/test_excel/CONSTANTS_excel.xlsx
+++ b/results/test_excel/CONSTANTS_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\CryoGrid_v01\results\test_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sstuenzi\Seafile\sync\AWI\programing\CryoGrid\Lehnin\CryoGrid\results\test_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>CONST</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Tmfw</t>
+  </si>
+  <si>
+    <t>L_s</t>
+  </si>
+  <si>
+    <t>volumetric latent heat of sublimation</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -252,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,31 +523,31 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -556,7 +562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -571,7 +577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -585,7 +591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -599,7 +605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -613,18 +619,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
+      <c r="B11" s="1">
+        <v>2260000000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2830000000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -638,7 +661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -652,7 +675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -666,7 +689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -680,7 +703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -688,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -702,7 +725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -716,7 +739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -730,7 +753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -744,7 +767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -758,7 +781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -772,7 +795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -786,7 +809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -800,7 +823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -814,7 +837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -828,7 +851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
